--- a/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_10_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_10_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_12</t>
+          <t>model_10_9_17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9940300543902846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084497990708377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9889212215626542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9027011851815698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9640454786567074</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03992105378123915</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345127651611261</v>
+        <v>1.280897075620883</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.04924612651147441</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1762492672322431</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1127475053123002</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2550099009896564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1998025369739813</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003037826948185</v>
+        <v>1.005731147785327</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2083085446212336</v>
       </c>
       <c r="P2" t="n">
-        <v>302.4923738004663</v>
+        <v>104.4417028611233</v>
       </c>
       <c r="Q2" t="n">
-        <v>484.1048717058282</v>
+        <v>164.1666182796651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_22</t>
+          <t>model_10_9_16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9942269994807683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084454114146781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9894757814478213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9073171626880434</v>
       </c>
       <c r="F3" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9657716275492231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03860408105432557</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345127651611261</v>
+        <v>1.280926415897826</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.04678105995042892</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1678877814875844</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1073345843733586</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2588742645367689</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1964792127791782</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003037826948185</v>
+        <v>1.005542080498462</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2048437396352283</v>
       </c>
       <c r="P3" t="n">
-        <v>302.4923738004663</v>
+        <v>104.5087945626081</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1048717058282</v>
+        <v>164.2337099811499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_21</t>
+          <t>model_10_9_18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9938336608583324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084441048799964</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9883803837026812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.898204942798099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9623633521447669</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04123433823371281</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345127651611261</v>
+        <v>1.280935152701258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.05165019748599972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1843938620750899</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1180223792573643</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.251345670282731</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.203062399852146</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003037826948185</v>
+        <v>1.005919685576001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2117071866109682</v>
       </c>
       <c r="P4" t="n">
-        <v>302.4923738004663</v>
+        <v>104.3769678349611</v>
       </c>
       <c r="Q4" t="n">
-        <v>484.1048717058282</v>
+        <v>164.1018832535029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_20</t>
+          <t>model_10_9_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9936387752068435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084297671743372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9878542818773015</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.8938325519243306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9607277334676776</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04253753948258428</v>
       </c>
       <c r="H5" t="n">
-        <v>1.345127651611261</v>
+        <v>1.28103102900502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.053988765514694</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1923141095004332</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1231514122299705</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2478723382363243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2062463078035199</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003037826948185</v>
+        <v>1.00610677580143</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2150266401154302</v>
       </c>
       <c r="P5" t="n">
-        <v>302.4923738004663</v>
+        <v>104.3147366219451</v>
       </c>
       <c r="Q5" t="n">
-        <v>484.1048717058282</v>
+        <v>164.0396520404869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_19</t>
+          <t>model_10_9_15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9944234977831925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084292102287859</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9900435358937882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.912043947679498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9675394304245672</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03729009600122343</v>
       </c>
       <c r="H6" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281034753302486</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.04425734242762981</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1593255765659431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1017910433489655</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2629512348754538</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1931064369751133</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003037826948185</v>
+        <v>1.005353442128135</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.201327377782576</v>
       </c>
       <c r="P6" t="n">
-        <v>302.4923738004663</v>
+        <v>104.5780550206904</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1048717058282</v>
+        <v>164.3029704392322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_18</t>
+          <t>model_10_9_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9934460392963252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8084081468932107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9873430690279542</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.8895869744766174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9591392647652343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04382636540368735</v>
       </c>
       <c r="H7" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281175603924465</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.05626115075965807</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.2000046442262011</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1281325905846243</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2445741836046305</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2093474752742133</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003037826948185</v>
+        <v>1.006291802275528</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2182598307056527</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4923738004663</v>
+        <v>104.255039385686</v>
       </c>
       <c r="Q7" t="n">
-        <v>484.1048717058282</v>
+        <v>163.9799548042278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_17</t>
+          <t>model_10_9_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.994618364446511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8083993783524958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9906235614138549</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9168760607958453</v>
       </c>
       <c r="F8" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9693460320302502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03598702172633397</v>
       </c>
       <c r="H8" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281234239196601</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.04167907892117713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1505725779037415</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.09612583584448725</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2672510438726109</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.189702455773071</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003037826948185</v>
+        <v>1.00516637013135</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1977784820535502</v>
       </c>
       <c r="P8" t="n">
-        <v>302.4923738004663</v>
+        <v>104.6491938262527</v>
       </c>
       <c r="Q8" t="n">
-        <v>484.1048717058282</v>
+        <v>164.3741092447945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_16</t>
+          <t>model_10_9_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9932561138255386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8083802754819093</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9868472954326833</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.8854717263282105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.933081895779569</v>
+        <v>0.957599185620199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04509639790136395</v>
       </c>
       <c r="H9" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281361980180174</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.05846490718748365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.207459097520304</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1329620271922854</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2414486988331559</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2123591248365936</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003037826948185</v>
+        <v>1.006474130727483</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2213996924248776</v>
       </c>
       <c r="P9" t="n">
-        <v>302.4923738004663</v>
+        <v>104.1979058096251</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1048717058282</v>
+        <v>163.922821228167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_15</t>
+          <t>model_10_9_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.994810256956985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8083536835543289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9912144727635898</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9218021396505514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9711875847695594</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.0347038356252108</v>
       </c>
       <c r="H10" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281539800522348</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.03905242696214714</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1416493675841671</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.09035102729466124</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2717875796971323</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1862896551749742</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004982153321294</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1942203914685213</v>
       </c>
       <c r="P10" t="n">
-        <v>302.4923738004663</v>
+        <v>104.7218101227769</v>
       </c>
       <c r="Q10" t="n">
-        <v>484.1048717058282</v>
+        <v>164.4467255413188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_14</t>
+          <t>model_10_9_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9930694811363163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8083473129036072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9863667882678633</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.8814873208485012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9561078356849582</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.0463444115535578</v>
       </c>
       <c r="H11" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281582401093059</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.06060080301410603</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.2146765394538504</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1376386569585561</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2384862021753475</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2152775221744198</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003037826948185</v>
+        <v>1.006653298109136</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2244423319792903</v>
       </c>
       <c r="P11" t="n">
-        <v>302.4923738004663</v>
+        <v>104.1433091296415</v>
       </c>
       <c r="Q11" t="n">
-        <v>484.1048717058282</v>
+        <v>163.8682245481833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_13</t>
+          <t>model_10_9_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9928865958479171</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8083101095342393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9859020960944994</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.877634270021994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9546656191753524</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04756736631919316</v>
       </c>
       <c r="H12" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281831180195327</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.06266639983850215</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.2216560426065635</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1421612123285945</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2356721325409911</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2180994413546104</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003037826948185</v>
+        <v>1.006828867986</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.2273843861011597</v>
       </c>
       <c r="P12" t="n">
-        <v>302.4923738004663</v>
+        <v>104.0912166687856</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1048717058282</v>
+        <v>163.8161320873274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_23</t>
+          <t>model_10_9_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9949976004836472</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8082898575172457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9918149361754608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9268105079029805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9730597156197064</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03345106859978322</v>
       </c>
       <c r="H13" t="n">
-        <v>1.345127651611261</v>
+        <v>1.281966605526216</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.03638331526235625</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1325770963939463</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.08448033078456432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2765734453039481</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1828963329314812</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004802303535699</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1906826084719773</v>
       </c>
       <c r="P13" t="n">
-        <v>302.4923738004663</v>
+        <v>104.7953430934726</v>
       </c>
       <c r="Q13" t="n">
-        <v>484.1048717058282</v>
+        <v>164.5202585120144</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9927078422499747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.808269395490109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9854528189994128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.8739144009795756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9532726981403781</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.04876269245171816</v>
       </c>
       <c r="H14" t="n">
-        <v>1.345127651611261</v>
+        <v>1.282103435195898</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.06466347530927397</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.2283942972723537</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.1465291851432203</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.233001975977845</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.2208227625307639</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003037826948185</v>
+        <v>1.007000471440024</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.230223644697834</v>
       </c>
       <c r="P14" t="n">
-        <v>302.4923738004663</v>
+        <v>104.0415795148832</v>
       </c>
       <c r="Q14" t="n">
-        <v>484.1048717058282</v>
+        <v>163.766494933425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_10</t>
+          <t>model_10_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9951785926337269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8082051302928428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.992423212393348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9318865160114785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9749569570877117</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03224077325880811</v>
       </c>
       <c r="H15" t="n">
-        <v>1.345127651611261</v>
+        <v>1.282533176865931</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.03367947496539558</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1233823008431762</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.0785308914789969</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2816260122984774</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1795571587512125</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004628551071622</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1872012787338111</v>
       </c>
       <c r="P15" t="n">
-        <v>302.4923738004663</v>
+        <v>104.869046754354</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1048717058282</v>
+        <v>164.5939621728958</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_9</t>
+          <t>model_10_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9953511425957569</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8080965025470797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9930369920383325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9370122867582011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.933081895779569</v>
+        <v>0.976872482827392</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03108693086819414</v>
       </c>
       <c r="H16" t="n">
-        <v>1.345127651611261</v>
+        <v>1.283259571102034</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.03095117145991292</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1140973641273879</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.07252411568442094</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2869598970977665</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1763148628680921</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004462903108073</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1838209516024686</v>
       </c>
       <c r="P16" t="n">
-        <v>302.4923738004663</v>
+        <v>104.9419355548731</v>
       </c>
       <c r="Q16" t="n">
-        <v>484.1048717058282</v>
+        <v>164.6668509734149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_8</t>
+          <t>model_10_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9955128826927173</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8079605154931843</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9936541280360706</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9421680369635452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9787989408624822</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.03000537409507486</v>
       </c>
       <c r="H17" t="n">
-        <v>1.345127651611261</v>
+        <v>1.284168917157595</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.02820794867670931</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.1047581219442214</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.06648305799736665</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.292588657149442</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1732205937383741</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004307632614991</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1805949530298784</v>
       </c>
       <c r="P17" t="n">
-        <v>302.4923738004663</v>
+        <v>105.012757553721</v>
       </c>
       <c r="Q17" t="n">
-        <v>484.1048717058282</v>
+        <v>164.7376729722629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_7</t>
+          <t>model_10_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9956611280197059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.807793396857351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9942714108635679</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9473292014878335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9807271105485975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02901405691089538</v>
       </c>
       <c r="H18" t="n">
-        <v>1.345127651611261</v>
+        <v>1.285286440244923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.02546407322255129</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.09540907214162768</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.06043663285231719</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.2985338790658663</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1703351311705703</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004165317101082</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1775866503468321</v>
       </c>
       <c r="P18" t="n">
-        <v>302.4923738004663</v>
+        <v>105.0799496907392</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1048717058282</v>
+        <v>164.8048651092811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_6</t>
+          <t>model_10_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9957927937304932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8075908216551415</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9948857990832095</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9524667949865439</v>
       </c>
       <c r="F19" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9826463760238671</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02813360769659558</v>
       </c>
       <c r="H19" t="n">
-        <v>1.345127651611261</v>
+        <v>1.286641061554871</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.02273306455018338</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.08610271942628786</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.05441812985786611</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.3048097495368329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1677307595421769</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003037826948185</v>
+        <v>1.004038918018727</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1748714052264256</v>
       </c>
       <c r="P19" t="n">
-        <v>302.4923738004663</v>
+        <v>105.1415808276945</v>
       </c>
       <c r="Q19" t="n">
-        <v>484.1048717058282</v>
+        <v>164.8664962462363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_5</t>
+          <t>model_10_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9959043836838625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8073480008453582</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9954931145286506</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9575480059975821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9845444783410408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02738740516459071</v>
       </c>
       <c r="H20" t="n">
-        <v>1.345127651611261</v>
+        <v>1.288264805427979</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.02003349496968242</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.0768984992205321</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.0484659910699372</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.311442457444671</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.165491405107911</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003037826948185</v>
+        <v>1.003931791663492</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1725367168377903</v>
       </c>
       <c r="P20" t="n">
-        <v>302.4923738004663</v>
+        <v>105.1953440735852</v>
       </c>
       <c r="Q20" t="n">
-        <v>484.1048717058282</v>
+        <v>164.920259492127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_4</t>
+          <t>model_10_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9959919073467415</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8070594781261466</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9960888396434205</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9625345445765534</v>
       </c>
       <c r="F21" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9864069269935281</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02680213402790909</v>
       </c>
       <c r="H21" t="n">
-        <v>1.345127651611261</v>
+        <v>1.290194158179871</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.01738544540953203</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.06786577079306778</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.04262565634999298</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.3184487437681352</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1637135731328014</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003037826948185</v>
+        <v>1.003847768947128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1706831988748806</v>
       </c>
       <c r="P21" t="n">
-        <v>302.4923738004663</v>
+        <v>105.2385475334568</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1048717058282</v>
+        <v>164.9634629519986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_3</t>
+          <t>model_10_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9960509062244077</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8067191941446598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9966677853551368</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9673828390327497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9882175863648859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02640760826129035</v>
       </c>
       <c r="H22" t="n">
-        <v>1.345127651611261</v>
+        <v>1.292469638730938</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.01481198174440902</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.05908346088697757</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.03694772435524486</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.3258529124378746</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1625041792117678</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003037826948185</v>
+        <v>1.003791130024569</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1694223185508382</v>
       </c>
       <c r="P22" t="n">
-        <v>302.4923738004663</v>
+        <v>105.2682062372672</v>
       </c>
       <c r="Q22" t="n">
-        <v>484.1048717058282</v>
+        <v>164.993121655809</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_2</t>
+          <t>model_10_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9960762697386704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8063203366369693</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9972236965650358</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.97204193578899</v>
       </c>
       <c r="F23" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9899572138409216</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02623800232462765</v>
       </c>
       <c r="H23" t="n">
-        <v>1.345127651611261</v>
+        <v>1.295136800721434</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.01234090842827995</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.05064386796096039</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.03149253678027948</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.3337036350839358</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1619814875985143</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003037826948185</v>
+        <v>1.003766781050876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1688773748734877</v>
       </c>
       <c r="P23" t="n">
-        <v>302.4923738004663</v>
+        <v>105.2810928974511</v>
       </c>
       <c r="Q23" t="n">
-        <v>484.1048717058282</v>
+        <v>165.0060083159929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_11</t>
+          <t>model_10_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9841779846448705</v>
+        <v>0.9960622508315162</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7988445154216507</v>
+        <v>0.8058553087415219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9334159385388556</v>
+        <v>0.9977497057656739</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8891142665879087</v>
+        <v>0.9764530481074827</v>
       </c>
       <c r="F24" t="n">
-        <v>0.933081895779569</v>
+        <v>0.9916041222902267</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1058018895334331</v>
+        <v>0.02633174682131906</v>
       </c>
       <c r="H24" t="n">
-        <v>1.345127651611261</v>
+        <v>1.298246444399547</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1223824604085494</v>
+        <v>0.01000275212455786</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5388793491535733</v>
+        <v>0.04265347963748208</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3306308165670404</v>
+        <v>0.02632810092632993</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2838632750813936</v>
+        <v>0.3421348505412943</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3252720239021996</v>
+        <v>0.1622705975256117</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003037826948185</v>
+        <v>1.003780239201745</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3391195273656298</v>
+        <v>0.1691787928087216</v>
       </c>
       <c r="P24" t="n">
-        <v>302.4923738004663</v>
+        <v>105.2739599285797</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.1048717058282</v>
+        <v>164.9988753471215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_0</t>
+          <t>model_10_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9841780647281483</v>
+        <v>0.9960023291556083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7988444607914502</v>
+        <v>0.8053154670947196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9334170578297689</v>
+        <v>0.9982376678205497</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8891145319921487</v>
+        <v>0.9805503162198955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9330822166416782</v>
+        <v>0.9931333480936761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1058013540161857</v>
+        <v>0.02673244334402913</v>
       </c>
       <c r="H25" t="n">
-        <v>1.345128016923663</v>
+        <v>1.301856367977457</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1223804031357894</v>
+        <v>0.0078337186681067</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5388780593495583</v>
+        <v>0.03523159578602525</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3306292312426739</v>
+        <v>0.0215326986248529</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2838620812176407</v>
+        <v>0.3511748298930281</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3252712007174716</v>
+        <v>0.163500591265075</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003037811572196</v>
+        <v>1.003837764010616</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3391186691362238</v>
+        <v>0.170461149928112</v>
       </c>
       <c r="P25" t="n">
-        <v>302.4923839235105</v>
+        <v>105.2437546894049</v>
       </c>
       <c r="Q25" t="n">
-        <v>484.1048818288724</v>
+        <v>164.9686701079467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_1</t>
+          <t>model_10_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9841780431160855</v>
+        <v>0.9958891950700614</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7988444346006749</v>
+        <v>0.8046912684832226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9334167586801416</v>
+        <v>0.9986781940409052</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8891144592677581</v>
+        <v>0.9842574318704432</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9330821343781418</v>
+        <v>0.9945162855246927</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1058014985361488</v>
+        <v>0.02748897149501585</v>
       </c>
       <c r="H26" t="n">
-        <v>1.345128192061498</v>
+        <v>1.306030386966707</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1223809529770972</v>
+        <v>0.005875541590919013</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5388784127734939</v>
+        <v>0.02851644290185618</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3306296376926255</v>
+        <v>0.01719603276129247</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2838620152390081</v>
+        <v>0.3613699187617583</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3252714228704218</v>
+        <v>0.1657979839896006</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003037815721712</v>
+        <v>1.003946372732741</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3391189007466849</v>
+        <v>0.1728563474171791</v>
       </c>
       <c r="P26" t="n">
-        <v>302.492381191601</v>
+        <v>105.1879407825823</v>
       </c>
       <c r="Q26" t="n">
-        <v>484.1048790969629</v>
+        <v>164.9128562011241</v>
       </c>
     </row>
   </sheetData>
